--- a/biology/Médecine/Géode_osseuse/Géode_osseuse.xlsx
+++ b/biology/Médecine/Géode_osseuse/Géode_osseuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ode_osseuse</t>
+          <t>Géode_osseuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une géode (osseuse), en médecine, désigne une cavité d'origine pathologique, qui apparait dans les tissus d'un organe comme un os ou le poumon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ode_osseuse</t>
+          <t>Géode_osseuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme provient d'une analogie avec les géodes que l'on trouve dans certaines pierres.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ode_osseuse</t>
+          <t>Géode_osseuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En radiographie, on peut repérer une géode par une image radiographique transparente.
 -fond homogène
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ode_osseuse</t>
+          <t>Géode_osseuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les géodes peuvent être le résultat de divers mécanismes, on peut en rencontrer dans les pathologies suivantes :
 L'arthrose (par exemple dans l'arthrose de l'articulation temporo-mandibulaire).
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9ode_osseuse</t>
+          <t>Géode_osseuse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Encyclopédie Vulgaris Médical : Géode osseuse
  Portail de la médecine                     </t>
